--- a/監視設定チェックシート_Getperf.xlsx
+++ b/監視設定チェックシート_Getperf.xlsx
@@ -11,7 +11,7 @@
     <sheet name="監視設定チェックシート(Getperf)" sheetId="2" r:id="rId2"/>
     <sheet name="検査ルール" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>Getperf</t>
-  </si>
-  <si>
-    <t>Getperf</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Getperf</t>
@@ -124,22 +120,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>yps2na</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>yqaj222</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>yqaj223</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>yqaj224</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>data_transfer</t>
   </si>
   <si>
@@ -166,6 +146,61 @@
     <rPh sb="24" eb="26">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エージェントデータ転送状態</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ノード定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Getperf</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Linux</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.VM</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Windows</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Storage</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Host</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ostrich</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -633,7 +668,7 @@
   <dimension ref="B1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,19 +768,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -757,17 +788,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -781,20 +808,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -805,20 +828,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -829,17 +848,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>D5</f>
+        <v>ostrich</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -981,7 +997,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,19 +1061,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -1065,10 +1081,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1077,62 +1093,96 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
@@ -1599,13 +1649,13 @@
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1613,10 +1663,10 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>

--- a/監視設定チェックシート_Getperf.xlsx
+++ b/監視設定チェックシート_Getperf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -116,18 +116,10 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>SSLクライアント証明書の有効期限。getperfctl setup済の場合、有効期限を取得(有効期限は1年間で自動的に更新される)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>data_transfer</t>
   </si>
   <si>
     <t>データ転送状態</t>
-  </si>
-  <si>
-    <t>エージェントからデータ転送された最新の日付。空白となる場合、日付が古い場合はエージェントからの通信ができない状態になっている</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>監視エージェントのサーバ名</t>
@@ -180,27 +172,76 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>domain.VM</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>domain.Windows</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>domain.Storage</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>domain.Oracle</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>domain.Host</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ostrich</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>paas</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>test_a1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.MyApps</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.Process</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>転送済みデータを集計した最新の日付。空白もしくは、日付が古い場合はデータ集計ができない状態になっている</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エージェントからデータ転送された最新の日付。空白もしくは、日付が古い場合はエージェントからの通信ができない状態になっている</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SSLクライアント証明書の有効期限内か。getperfctl setup済の場合、有効期限が取得できる。有効期限は1年毎に自動的に更新される。旧エージェントの場合は、SSL有効期限の設定はなく、Unkownとなる</t>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -667,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,12 +809,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
@@ -788,12 +831,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -808,12 +853,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -828,12 +875,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -848,13 +897,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>D5</f>
-        <v>ostrich</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>paas</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>E5</f>
+        <v>test_a1</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -996,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,7 +1108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -1081,10 +1133,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1093,35 +1145,37 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -1129,11 +1183,11 @@
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -1141,11 +1195,11 @@
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -1153,36 +1207,28 @@
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
@@ -1663,10 +1709,10 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>

--- a/監視設定チェックシート_Getperf.xlsx
+++ b/監視設定チェックシート_Getperf.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -149,13 +149,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ノード定義</t>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Getperf</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -193,10 +186,6 @@
   </si>
   <si>
     <t>domain.MyApps</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>domain.Process</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -241,6 +230,59 @@
     </rPh>
     <rPh sb="91" eb="93">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>clvc001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>domain.VCenter</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Getperf</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データ集計の最終更新日</t>
+    <rPh sb="3" eb="5">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>├─Linuxデータ集計</t>
+    <rPh sb="10" eb="12">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>├─Windowsデータ集計</t>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>├─MyAppsデータ集計</t>
+    <rPh sb="11" eb="13">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>└─VCenterデータ集計</t>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -709,7 +751,7 @@
   <dimension ref="B1:M17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,12 +854,14 @@
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
@@ -834,12 +878,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -861,7 +907,9 @@
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -883,7 +931,9 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -907,7 +957,10 @@
         <f>E5</f>
         <v>test_a1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="str">
+        <f>F5</f>
+        <v>clvc001</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1046,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1125,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -1133,7 +1186,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1145,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
@@ -1153,29 +1206,31 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -1183,11 +1238,13 @@
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -1195,11 +1252,13 @@
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -1207,11 +1266,13 @@
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -1393,7 +1454,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1406,7 +1467,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
@@ -1430,7 +1491,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
@@ -1526,7 +1587,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
@@ -1550,7 +1611,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
@@ -1561,11 +1622,11 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1598,7 +1659,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
@@ -1614,7 +1675,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
@@ -1622,31 +1683,23 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
